--- a/工作进展/AI算法与应用-2024工作进展.xlsx
+++ b/工作进展/AI算法与应用-2024工作进展.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJ\Downloads\Compressed\AI-Algorithm-and-Application-Group-main\AI-Algorithm-and-Application-Group-main\工作进展\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\steve_jiang\10_meeting\AI算法与应用小组\2024\AI-Algorithm-and-Application-Group-main\AI-Algorithm-and-Application-Group-main (1)\AI-Algorithm-and-Application-Group-main\工作进展\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF610B7-91A2-4050-9AC1-3BA5BAD018E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEAAA89-068B-41FF-8FF0-FC42AD29C414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="144" windowWidth="17280" windowHeight="9420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="001" sheetId="2" r:id="rId1"/>
-    <sheet name="002" sheetId="3" r:id="rId2"/>
-    <sheet name="003" sheetId="4" r:id="rId3"/>
-    <sheet name="004" sheetId="1" r:id="rId4"/>
-    <sheet name="005" sheetId="5" r:id="rId5"/>
-    <sheet name="006" sheetId="6" r:id="rId6"/>
-    <sheet name="007" sheetId="7" r:id="rId7"/>
-    <sheet name="008" sheetId="8" r:id="rId8"/>
+    <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
+    <sheet name="002王春妍" sheetId="3" r:id="rId2"/>
+    <sheet name="003张保江" sheetId="4" r:id="rId3"/>
+    <sheet name="004江润洲" sheetId="1" r:id="rId4"/>
+    <sheet name="005董凡" sheetId="5" r:id="rId5"/>
+    <sheet name="006周远航" sheetId="6" r:id="rId6"/>
+    <sheet name="007杨晨辉" sheetId="7" r:id="rId7"/>
+    <sheet name="008胡梦圆" sheetId="9" r:id="rId8"/>
+    <sheet name="009杨同学" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="128">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -507,12 +508,240 @@
 - 了解三维可视化工具，模拟雷达、相机等信号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>20240408-20240415</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.课题
+定了初步的整体架构，下一步进行实验
+2.其他任务和学习
+参加比赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.课题
+数据转换，将时域数据转换为时频域数据
+2.其他任务
+补上周的两周六道题
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240416-20240422</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.课题
+通过Morlet小波变换一维信号数据转化为二维时频域数据，加上导联为三维数据作为模型的输入
+2.学习和其他任务
+做两周六道题，还有部分没做完
+复习考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.课题
+设计Inception模块进行分类任务，查看结果
+2.其他任务
+复习考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上周没搞代码，在标数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>工作进展（按照1.课题或项目、2.自我学习、3.其他任务）</t>
+  </si>
+  <si>
+    <t>困难点</t>
+  </si>
+  <si>
+    <t>下一步计划</t>
+  </si>
+  <si>
+    <t>20240226-20240311</t>
+  </si>
+  <si>
+    <t>1.做文献综述
+2.机器学习复习，自己做试题
+3.深度学习看视频学习，目前在张量部分
+4.小组的编程题目，深度学习的暂时还没做
+5.借助AI做随机森林和决策树算法模型训练</t>
+  </si>
+  <si>
+    <t>1.张量的操作太多，不好理解；
+2.数据集太少，模型训练有限；</t>
+  </si>
+  <si>
+    <t>1.课题
+(1)和张老师商量具体任务；
+2.自我学习
+（1）python高阶语法和深度学习网络
+3.其他任务
+（1）自己做一些面试题</t>
+  </si>
+  <si>
+    <t>20240312-20240317</t>
+  </si>
+  <si>
+    <t>1.复习python和机器学习
+2.和张老师沟通好，主要任务就是利用机器学习做心脏疾病的预测分类，这周在网上找到了具体数据，开始复现论文的结果</t>
+  </si>
+  <si>
+    <t>编程能力不强，需要借助al编程，同时参数的优化不知道用哪些方法</t>
+  </si>
+  <si>
+    <t>复现论文的结果</t>
+  </si>
+  <si>
+    <t>20240318-20240325</t>
+  </si>
+  <si>
+    <t>1.找到网上医疗数据，做了最基础的算法分类，比如svm，随机森林等
+2，复现论文的方法，混合线性随机森林，复现成功
+3.思考其他优化方法，思考自己的创新点</t>
+  </si>
+  <si>
+    <t>1.数据集不够</t>
+  </si>
+  <si>
+    <t>找数据集，用不同的数据集解释模型的泛化能力</t>
+  </si>
+  <si>
+    <t>20240326-20240401</t>
+  </si>
+  <si>
+    <t>1.尝试用粒子群算法优化自己模型的超参数，和线性随机森林使用， 提高模型效率
+2.算出了模型各个特征的shap值，想用结果来筛选特征 ，但是数据集的特征本来就不多，找到了其他的特征更多的数据集，想利用粒子群算法和贝叶斯优化结合提高超参数优化效率，shap值来筛选特征，优化我的集成学习模型算法</t>
+  </si>
+  <si>
+    <t>算法的原理还需要加强认识</t>
+  </si>
+  <si>
+    <t>看看结果是否理想，不然的话考虑是否将人工网络加入进来优化模型</t>
+  </si>
+  <si>
+    <t>1. python的视频学习
+2. 学校C语言课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.暂无进展
+2.Python课程及笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.先完成ICA的计算。
+2.学习李宏毅视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240129-20240204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.暂无进展
+2.学习李宏毅视频，4课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.完成六道题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240205-20240218</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.用现有数据跑一个模型
+2.学习李宏毅视频
+3.（1）整理吴恩达习题
+（2）找六道题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.继续完成ICA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.跑Python题
+3.完成6道题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.①跑Python600中的题
+②6道题
+3.组内项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.学习李视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.ICA代码匹配脑网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.六道题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240311-20240317</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.下载数据集
+3.三组数据集的ICA及脑网络匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.尝试对数据进行处理
+2.学习李的视频
+3.①完成脑网络的确认，计算功能连接
+②六道题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202403218-20240324</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.脑网络确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.数据处理
+3.六道题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240422-20240428</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,6 +751,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -545,10 +782,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -557,9 +795,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{E5BCDF35-15CC-45F0-968D-04EC1F0E8652}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -572,6 +827,183 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5201285" cy="2984500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BDF8A2B-2FF1-437F-9927-D6C97943C5F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3423285"/>
+          <a:ext cx="5201285" cy="2984500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2914650" cy="771525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD862DF7-C080-404E-B705-88151309BB99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66675" y="6467475"/>
+          <a:ext cx="2914650" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3676650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4953000" cy="3619500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{873C05B7-8C36-44AC-89C0-ECE7E9B72F9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5229225" y="3419475"/>
+          <a:ext cx="4953000" cy="3619500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1800225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6962775" cy="3629025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69AF0E61-8D9E-4100-929E-79E39A1329C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10239375" y="3429000"/>
+          <a:ext cx="6962775" cy="3629025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -839,18 +1271,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA12AC3-1402-48E1-953D-85ABF8F6B6A3}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="4" max="4" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -864,7 +1296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -878,7 +1310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -892,7 +1324,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="114" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -906,7 +1338,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="138" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -920,7 +1352,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -934,7 +1366,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="165.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -948,7 +1380,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="138" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -962,7 +1394,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="248.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -976,7 +1408,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -990,7 +1422,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1004,7 +1436,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1018,7 +1450,33 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
     </row>
   </sheetData>
@@ -1029,12 +1487,169 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A34F37F-F703-407A-90EF-DDF31E7D456F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="38.875" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1042,12 +1657,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D236A55-B6FC-4374-89D8-9F770EEF7D39}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.875" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1055,20 +1705,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="19.21875" customWidth="1"/>
+    <col min="1" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" customWidth="1"/>
+    <col min="5" max="5" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="94.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1102,7 +1752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="101.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="101.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1117,6 +1767,14 @@
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1130,18 +1788,18 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1155,7 +1813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>56</v>
       </c>
@@ -1169,7 +1827,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -1183,7 +1841,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
@@ -1197,7 +1855,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>66</v>
       </c>
@@ -1211,7 +1869,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
@@ -1222,7 +1880,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>73</v>
       </c>
@@ -1244,14 +1902,114 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFE9B93-3B3E-4B42-9AAA-B8F7C36D2A5C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="65.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="34.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="46" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="5"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1259,17 +2017,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F395B06B-D3DD-4C6E-8788-51F9EC4439D8}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="5" max="5" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1286,7 +2045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="173.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1308,14 +2067,66 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21ADC75A-D281-42EA-8F52-23F34E52017C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E233D40-0E33-4AB4-9436-BF03DF9A999E}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21ADC75A-D281-42EA-8F52-23F34E52017C}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/工作进展/AI算法与应用-2024工作进展.xlsx
+++ b/工作进展/AI算法与应用-2024工作进展.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\steve_jiang\10_meeting\AI算法与应用小组\2024\AI-Algorithm-and-Application-Group-main\AI-Algorithm-and-Application-Group-main (1)\AI-Algorithm-and-Application-Group-main\工作进展\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\steve_jiang\10_meeting\AI算法与应用小组\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEAAA89-068B-41FF-8FF0-FC42AD29C414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D29009-F615-4157-98FA-98C6B5594E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="131">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -734,6 +734,29 @@
   </si>
   <si>
     <t>20240422-20240428</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. ASD多站点分类
+（1）mobilenetv2更新一版结果，目前准确率0.882，ASD多站点分类sota准确率0.7
+（2）分析网络权重，将权重映射到脑区找biomarker；
+2. 自我学习
+（1）双周6道题答案整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 将权重映射到脑区找biomarker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. ASD多站点分类
+（1）通过目前的网络找到重要biomarker
+（2）隐藏层特征可视化grad-CAM
+2. 自我学习任务
+（1）完成双周6道题
+3. 其他任务
+（1）筹备paper with code前沿与经典AI论文分享
+（2）筹备AI算法与应用源码逐行解读</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1707,15 +1730,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="5" max="5" width="40.625" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="5" max="5" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1769,12 +1793,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>126</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2083,8 +2116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21ADC75A-D281-42EA-8F52-23F34E52017C}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/工作进展/AI算法与应用-2024工作进展.xlsx
+++ b/工作进展/AI算法与应用-2024工作进展.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\steve_jiang\10_meeting\AI算法与应用小组\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D29009-F615-4157-98FA-98C6B5594E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61986C14-85A0-4F2A-90F3-4FF203C008B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="465" windowWidth="24375" windowHeight="15735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="135">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -759,12 +759,31 @@
 （2）筹备AI算法与应用源码逐行解读</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>20240422-20240429</t>
+  </si>
+  <si>
+    <t>1.课题
+数据处理完毕，正在跑基本的模型
+2.其他任务
+复习考试</t>
+  </si>
+  <si>
+    <t>暂无</t>
+  </si>
+  <si>
+    <t>1.课题
+先使用基本的计算机视觉的模型得到一个较好的结果，然后再次基础上提升性能。
+调超参数
+2.其他任务
+补前两次的两周六道题</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -787,6 +806,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -805,11 +831,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -834,10 +861,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{E5BCDF35-15CC-45F0-968D-04EC1F0E8652}"/>
+    <cellStyle name="常规 2 2" xfId="2" xr:uid="{EBD2854C-F68D-43C4-BA94-2AB62536B04A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1294,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA12AC3-1402-48E1-953D-85ABF8F6B6A3}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1497,6 +1529,20 @@
       </c>
       <c r="D14" s="1" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
@@ -1730,7 +1776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>

--- a/工作进展/AI算法与应用-2024工作进展.xlsx
+++ b/工作进展/AI算法与应用-2024工作进展.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\steve_jiang\10_meeting\AI算法与应用小组\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\新建文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61986C14-85A0-4F2A-90F3-4FF203C008B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B834511C-5362-41AF-B268-BA0455A26061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="465" windowWidth="24375" windowHeight="15735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="450" yWindow="3780" windowWidth="28140" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="139">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -777,6 +777,24 @@
 调超参数
 2.其他任务
 补前两次的两周六道题</t>
+  </si>
+  <si>
+    <t>20240430-20240506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.数据通过CWT转换为图片，输入到swimtransform、mobilenetv2、resnet50模型中，模型出现严重过拟合现象
+2.补第5、6次两周六道题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调了好几次超参数，依旧欠拟合严重，没有头绪。估计是数据转换方法需要换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查找文献，换一种数据转换的方法，进行模型的训练
+2.补第7次两周六道题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -836,7 +854,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -860,10 +878,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1326,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA12AC3-1402-48E1-953D-85ABF8F6B6A3}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1532,17 +1546,31 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="1" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">

--- a/工作进展/AI算法与应用-2024工作进展.xlsx
+++ b/工作进展/AI算法与应用-2024工作进展.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\新建文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B834511C-5362-41AF-B268-BA0455A26061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031F8B72-8440-4CF6-8A1B-935735F95FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="3780" windowWidth="28140" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1860" yWindow="0" windowWidth="28140" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
@@ -783,17 +783,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>调了好几次超参数，依旧欠拟合严重，没有头绪。估计是数据转换方法需要换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.数据通过CWT转换为图片，输入到swimtransform、mobilenetv2、resnet50模型中，模型出现严重过拟合现象
-2.补第5、6次两周六道题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调了好几次超参数，依旧欠拟合严重，没有头绪。估计是数据转换方法需要换</t>
+2.补第6、7次两周六道题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.查找文献，换一种数据转换的方法，进行模型的训练
-2.补第7次两周六道题</t>
+2.补第8次两周六道题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1341,7 +1341,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1564,10 +1564,10 @@
         <v>135</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>138</v>

--- a/工作进展/AI算法与应用-2024工作进展.xlsx
+++ b/工作进展/AI算法与应用-2024工作进展.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\steve_jiang\10_meeting\AI算法与应用小组\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031F8B72-8440-4CF6-8A1B-935735F95FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727D933E-8790-4224-8692-1B381BB29ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1860" yWindow="0" windowWidth="28140" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="142">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -794,6 +794,21 @@
   <si>
     <t>1.查找文献，换一种数据转换的方法，进行模型的训练
 2.补第8次两周六道题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240429-20240505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. ASD多站点分类任务
+（1）复现GuidedBackPropogation方法找重要Biomarker
+2. 自我学习
+（1）双周6道题答案整理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1340,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA12AC3-1402-48E1-953D-85ABF8F6B6A3}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1573,6 +1588,7 @@
         <v>138</v>
       </c>
     </row>
+    <row r="17" spans="2:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
     </row>
@@ -1802,10 +1818,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1881,6 +1897,23 @@
         <v>129</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>130</v>
       </c>
     </row>

--- a/工作进展/AI算法与应用-2024工作进展.xlsx
+++ b/工作进展/AI算法与应用-2024工作进展.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\steve_jiang\10_meeting\AI算法与应用小组\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\fork\AI-Algorithm-and-Application-Group\工作进展\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727D933E-8790-4224-8692-1B381BB29ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BAB3B6-C355-4F75-ADB1-C3AA1633B117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="144">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -809,6 +809,14 @@
 （1）复现GuidedBackPropogation方法找重要Biomarker
 2. 自我学习
 （1）双周6道题答案整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、查阅一些yolov8资料，了解一些精度、速度和应用场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yolov8使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1359,14 +1367,14 @@
       <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
-    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1380,7 +1388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="126" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1394,7 +1402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="182" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1408,7 +1416,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="112" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1422,7 +1430,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="140" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1436,7 +1444,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="154" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1450,7 +1458,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="154" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1464,7 +1472,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="140" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1478,7 +1486,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="256.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="252" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1492,7 +1500,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1506,7 +1514,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1520,7 +1528,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="84" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1534,7 +1542,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="84" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -1546,7 +1554,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -1560,7 +1568,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -1574,7 +1582,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="126" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -1588,8 +1596,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
     </row>
   </sheetData>
@@ -1606,15 +1614,15 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.75" customWidth="1"/>
-    <col min="2" max="2" width="38.875" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1628,7 +1636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -1643,7 +1651,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>108</v>
       </c>
@@ -1658,7 +1666,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="56" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>111</v>
       </c>
@@ -1673,7 +1681,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -1688,7 +1696,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -1703,7 +1711,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>62</v>
       </c>
@@ -1718,7 +1726,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="70" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>120</v>
       </c>
@@ -1733,7 +1741,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>123</v>
       </c>
@@ -1748,14 +1756,14 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1773,16 +1781,16 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.875" customWidth="1"/>
-    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1799,7 +1807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1820,19 +1828,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
-    <col min="5" max="5" width="50.625" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="50.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1849,7 +1857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="94.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="94.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1866,7 +1874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="101.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="101.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1883,7 +1891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -1900,7 +1908,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -1925,21 +1933,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FCD182-86A4-4360-86CF-6FB9F6AAD733}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.58203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.08203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="23.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1953,7 +1961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>56</v>
       </c>
@@ -1967,7 +1975,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -1981,7 +1989,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
@@ -1995,7 +2003,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>66</v>
       </c>
@@ -2009,7 +2017,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
@@ -2020,7 +2028,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="98" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>73</v>
       </c>
@@ -2032,6 +2040,20 @@
       </c>
       <c r="D7" s="3" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2048,17 +2070,17 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="65.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="65.08203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="25.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="46" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>85</v>
       </c>
@@ -2072,7 +2094,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="84" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>89</v>
       </c>
@@ -2086,7 +2108,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>93</v>
       </c>
@@ -2100,7 +2122,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>97</v>
       </c>
@@ -2114,7 +2136,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="70" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>101</v>
       </c>
@@ -2128,22 +2150,22 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
     </row>
   </sheetData>
@@ -2161,14 +2183,14 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
+    <col min="5" max="5" width="33.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2185,7 +2207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2212,7 +2234,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2227,13 +2249,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2250,7 +2272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>

--- a/工作进展/AI算法与应用-2024工作进展.xlsx
+++ b/工作进展/AI算法与应用-2024工作进展.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\fork\AI-Algorithm-and-Application-Group\工作进展\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\steve_jiang\10_meeting\AI算法与应用小组\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BAB3B6-C355-4F75-ADB1-C3AA1633B117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48688DF4-269C-40FF-ACBD-AD2D4497DE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7170" yWindow="165" windowWidth="19020" windowHeight="15735" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="146">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -817,6 +817,17 @@
   </si>
   <si>
     <t>yolov8使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.图像配准任务
+（1）icp、NDT配准算法学习
+（2）配准相关算法推导，如PCA,KD-Tree，OCTree等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1367,14 +1378,14 @@
       <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
     <col min="4" max="4" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1388,7 +1399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="126" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1402,7 +1413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="182" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1416,7 +1427,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="112" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="114" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1430,7 +1441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="140" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1444,7 +1455,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="154" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1458,7 +1469,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="154" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1472,7 +1483,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="140" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1486,7 +1497,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="252" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1500,7 +1511,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="98" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1514,7 +1525,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="98" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1528,7 +1539,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="84" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1542,7 +1553,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="84" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -1554,7 +1565,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="98" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -1568,7 +1579,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -1582,7 +1593,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="126" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -1596,8 +1607,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
     </row>
   </sheetData>
@@ -1614,15 +1625,15 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.75" customWidth="1"/>
-    <col min="2" max="2" width="38.83203125" customWidth="1"/>
+    <col min="2" max="2" width="38.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1636,7 +1647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -1651,7 +1662,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>108</v>
       </c>
@@ -1666,7 +1677,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>111</v>
       </c>
@@ -1681,7 +1692,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -1696,7 +1707,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -1711,7 +1722,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>62</v>
       </c>
@@ -1726,7 +1737,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>120</v>
       </c>
@@ -1741,7 +1752,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>123</v>
       </c>
@@ -1756,14 +1767,14 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1784,13 +1795,13 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" customWidth="1"/>
-    <col min="3" max="3" width="47.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.875" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1807,7 +1818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1832,15 +1843,15 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
-    <col min="5" max="5" width="50.58203125" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="5" max="5" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1857,7 +1868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="94.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="94.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1874,7 +1885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="101.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="101.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1891,7 +1902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -1908,7 +1919,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -1935,19 +1946,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FCD182-86A4-4360-86CF-6FB9F6AAD733}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.58203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.08203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="23.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1961,7 +1972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>56</v>
       </c>
@@ -1975,7 +1986,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -1989,7 +2000,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
@@ -2003,7 +2014,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>66</v>
       </c>
@@ -2017,7 +2028,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
@@ -2028,7 +2039,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="98" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>73</v>
       </c>
@@ -2042,7 +2053,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>139</v>
       </c>
@@ -2070,17 +2081,17 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="65.08203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="65.125" style="4" customWidth="1"/>
     <col min="3" max="3" width="25.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="34.875" style="4" customWidth="1"/>
     <col min="5" max="5" width="46" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>85</v>
       </c>
@@ -2094,7 +2105,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="84" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>89</v>
       </c>
@@ -2108,7 +2119,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>93</v>
       </c>
@@ -2122,7 +2133,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>97</v>
       </c>
@@ -2136,7 +2147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="70" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>101</v>
       </c>
@@ -2150,22 +2161,22 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
     </row>
   </sheetData>
@@ -2177,20 +2188,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F395B06B-D3DD-4C6E-8788-51F9EC4439D8}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="5" max="5" width="33.58203125" customWidth="1"/>
+    <col min="5" max="5" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2207,7 +2218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2221,6 +2232,23 @@
         <v>5</v>
       </c>
       <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2234,7 +2262,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2249,13 +2277,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2272,7 +2300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>

--- a/工作进展/AI算法与应用-2024工作进展.xlsx
+++ b/工作进展/AI算法与应用-2024工作进展.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\steve_jiang\10_meeting\AI算法与应用小组\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48688DF4-269C-40FF-ACBD-AD2D4497DE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6303DEA6-47A5-4F7D-9174-8AD5AD40D470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7170" yWindow="165" windowWidth="19020" windowHeight="15735" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
@@ -827,7 +827,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编码测试</t>
+    <t>编码测试1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2191,7 +2191,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2253,6 +2253,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/工作进展/AI算法与应用-2024工作进展.xlsx
+++ b/工作进展/AI算法与应用-2024工作进展.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6303DEA6-47A5-4F7D-9174-8AD5AD40D470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60394E0-D9B5-4416-AF0D-1C0B6AAA0989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="163">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -828,6 +828,93 @@
   </si>
   <si>
     <t>编码测试1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230325-20240331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.李宏毅视频
+3.师兄毕业工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.数据处理
+3.补上六道题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240401-20240407</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.李宏毅视频
+3.①ICA
+②改论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在课题的学习上迟迟没有推进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.数据处理
+3.①师兄文章修改
+②功能连接以及两个图
+③六道题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.①论文
+②比赛
+③各科作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分课程结课，需要完成大量论文和报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.数据处理
+3.①PI的图
+②六道题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.李和吴的视频
+3.①比赛
+②各科作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.①ICA计算收尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.①ICA完成
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.①各科结课论文
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开始学习多站点数据需要用到的模型
+3.①两篇结课论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.①mobilenetv2
+2.学习李和吴视频
+3.①一篇结课论文
+②备考</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -908,10 +995,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1619,10 +1706,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A34F37F-F703-407A-90EF-DDF31E7D456F}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1633,11 +1720,11 @@
     <col min="4" max="4" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1702,7 +1789,7 @@
       <c r="C5" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>115</v>
       </c>
       <c r="E5" s="6"/>
@@ -1717,7 +1804,7 @@
       <c r="C6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>117</v>
       </c>
       <c r="E6" s="6"/>
@@ -1767,19 +1854,82 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+    <row r="11" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1839,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2190,8 +2340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F395B06B-D3DD-4C6E-8788-51F9EC4439D8}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/工作进展/AI算法与应用-2024工作进展.xlsx
+++ b/工作进展/AI算法与应用-2024工作进展.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\新建文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60394E0-D9B5-4416-AF0D-1C0B6AAA0989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5710DB3D-4E4C-46A0-8DFB-39E96E667D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="166">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -915,6 +915,19 @@
 2.学习李和吴视频
 3.①一篇结课论文
 ②备考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240507-20240513</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.重新对数据进行处理，使用resnet50进行分类,所有被试的平均准确率在50%左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.调整模型结构
+2.补第8次两周六道题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1461,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA12AC3-1402-48E1-953D-85ABF8F6B6A3}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1694,8 +1707,18 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
     </row>
   </sheetData>
@@ -1708,7 +1731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A34F37F-F703-407A-90EF-DDF31E7D456F}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -2424,7 +2447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21ADC75A-D281-42EA-8F52-23F34E52017C}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>

--- a/工作进展/AI算法与应用-2024工作进展.xlsx
+++ b/工作进展/AI算法与应用-2024工作进展.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\fork\AI-Algorithm-and-Application-Group\工作进展\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5710DB3D-4E4C-46A0-8DFB-39E96E667D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F17C485-BE33-429E-A7AE-DE9ABD5D337A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="1485" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="168">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -928,6 +928,14 @@
   <si>
     <t>1.调整模型结构
 2.补第8次两周六道题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240506-20240512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无进展</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1478,14 +1486,14 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
-    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1499,7 +1507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="126" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1513,7 +1521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="182" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1527,7 +1535,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="112" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1541,7 +1549,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="140" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1555,7 +1563,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="154" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1569,7 +1577,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="154" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1583,7 +1591,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="140" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1597,7 +1605,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="256.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="252" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1611,7 +1619,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1625,7 +1633,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1639,7 +1647,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="84" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1653,7 +1661,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="84" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -1665,7 +1673,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -1679,7 +1687,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -1693,7 +1701,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="126" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -1707,7 +1715,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>163</v>
       </c>
@@ -1718,7 +1726,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
     </row>
   </sheetData>
@@ -1735,15 +1743,15 @@
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.75" customWidth="1"/>
-    <col min="2" max="2" width="38.875" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1757,7 +1765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -1772,7 +1780,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>108</v>
       </c>
@@ -1787,7 +1795,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="56" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>111</v>
       </c>
@@ -1802,7 +1810,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -1817,7 +1825,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -1832,7 +1840,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>62</v>
       </c>
@@ -1847,7 +1855,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="70" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>120</v>
       </c>
@@ -1862,7 +1870,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>123</v>
       </c>
@@ -1877,7 +1885,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>146</v>
       </c>
@@ -1892,7 +1900,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="56" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>150</v>
       </c>
@@ -1907,7 +1915,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1921,7 +1929,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -1932,7 +1940,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>127</v>
       </c>
@@ -1943,7 +1951,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="56" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>139</v>
       </c>
@@ -1968,13 +1976,13 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.875" customWidth="1"/>
-    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1991,7 +1999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2016,15 +2024,15 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
-    <col min="5" max="5" width="50.625" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="50.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2041,7 +2049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="94.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="94.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2058,7 +2066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="101.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="101.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2075,7 +2083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -2092,7 +2100,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -2117,21 +2125,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FCD182-86A4-4360-86CF-6FB9F6AAD733}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.58203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.08203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="23.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2145,7 +2153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>56</v>
       </c>
@@ -2159,7 +2167,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2173,7 +2181,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
@@ -2187,7 +2195,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>66</v>
       </c>
@@ -2201,7 +2209,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
@@ -2212,7 +2220,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="98" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>73</v>
       </c>
@@ -2226,7 +2234,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>139</v>
       </c>
@@ -2237,6 +2245,20 @@
         <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2254,17 +2276,17 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="65.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="65.08203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="25.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="46" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>85</v>
       </c>
@@ -2278,7 +2300,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="84" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>89</v>
       </c>
@@ -2292,7 +2314,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>93</v>
       </c>
@@ -2306,7 +2328,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>97</v>
       </c>
@@ -2320,7 +2342,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="70" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>101</v>
       </c>
@@ -2334,22 +2356,22 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
     </row>
   </sheetData>
@@ -2367,14 +2389,14 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
+    <col min="5" max="5" width="33.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2391,7 +2413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2406,7 +2428,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -2436,7 +2458,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2447,17 +2469,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21ADC75A-D281-42EA-8F52-23F34E52017C}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2474,7 +2496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>

--- a/工作进展/AI算法与应用-2024工作进展.xlsx
+++ b/工作进展/AI算法与应用-2024工作进展.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\fork\AI-Algorithm-and-Application-Group\工作进展\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\新建文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F17C485-BE33-429E-A7AE-DE9ABD5D337A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA4378CF-98ED-4E79-956B-96B13378CDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="1485" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="1965" windowWidth="28140" windowHeight="14235" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="171">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -936,6 +936,23 @@
   </si>
   <si>
     <t>暂无进展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240514-20240521</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.对数据I进行结果的整理
+2.使用MobilenetV2对数据I进行K折交叉验证，整理结果，同时实验startnet
+3.对数据I2,3进行预处理并进行相同的实验
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用mobilenetv2对数据1进行9:1的训练的验证。
+2.对框架课题整体框架进行绘制
+3.使用startnet发现模型收敛速度快，准确率进一步提高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1482,18 +1499,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA12AC3-1402-48E1-953D-85ABF8F6B6A3}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
     <col min="4" max="4" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1507,7 +1524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="126" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1521,7 +1538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="182" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1535,7 +1552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="112" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="114" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1549,7 +1566,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="140" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1563,7 +1580,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="154" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1577,7 +1594,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="154" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1591,7 +1608,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="140" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1605,7 +1622,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="252" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1619,7 +1636,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="98" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1633,7 +1650,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="98" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1647,7 +1664,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="84" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1661,7 +1678,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="84" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -1673,7 +1690,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="98" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -1687,7 +1704,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -1701,7 +1718,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="126" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -1715,7 +1732,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>163</v>
       </c>
@@ -1726,8 +1743,16 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
+    <row r="18" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>169</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1743,15 +1768,15 @@
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.75" customWidth="1"/>
-    <col min="2" max="2" width="38.83203125" customWidth="1"/>
+    <col min="2" max="2" width="38.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1765,7 +1790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -1780,7 +1805,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>108</v>
       </c>
@@ -1795,7 +1820,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>111</v>
       </c>
@@ -1810,7 +1835,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -1825,7 +1850,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -1840,7 +1865,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>62</v>
       </c>
@@ -1855,7 +1880,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>120</v>
       </c>
@@ -1870,7 +1895,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>123</v>
       </c>
@@ -1885,7 +1910,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>146</v>
       </c>
@@ -1900,7 +1925,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>150</v>
       </c>
@@ -1915,7 +1940,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1929,7 +1954,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -1940,7 +1965,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>127</v>
       </c>
@@ -1951,7 +1976,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>139</v>
       </c>
@@ -1976,13 +2001,13 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" customWidth="1"/>
-    <col min="3" max="3" width="47.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.875" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1999,7 +2024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2024,15 +2049,15 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
-    <col min="5" max="5" width="50.58203125" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="5" max="5" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2049,7 +2074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="94.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="94.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2066,7 +2091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="101.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="101.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2083,7 +2108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -2100,7 +2125,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -2127,19 +2152,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FCD182-86A4-4360-86CF-6FB9F6AAD733}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.58203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.08203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="23.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2153,7 +2178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>56</v>
       </c>
@@ -2167,7 +2192,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2181,7 +2206,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
@@ -2195,7 +2220,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>66</v>
       </c>
@@ -2209,7 +2234,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
@@ -2220,7 +2245,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="98" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>73</v>
       </c>
@@ -2234,7 +2259,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>139</v>
       </c>
@@ -2248,7 +2273,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>166</v>
       </c>
@@ -2276,17 +2301,17 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="65.08203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="65.125" style="4" customWidth="1"/>
     <col min="3" max="3" width="25.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="34.875" style="4" customWidth="1"/>
     <col min="5" max="5" width="46" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>85</v>
       </c>
@@ -2300,7 +2325,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="84" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>89</v>
       </c>
@@ -2314,7 +2339,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>93</v>
       </c>
@@ -2328,7 +2353,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>97</v>
       </c>
@@ -2342,7 +2367,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="70" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>101</v>
       </c>
@@ -2356,22 +2381,22 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
     </row>
   </sheetData>
@@ -2389,14 +2414,14 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="5" max="5" width="33.58203125" customWidth="1"/>
+    <col min="5" max="5" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2413,7 +2438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2428,7 +2453,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -2458,7 +2483,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2473,13 +2498,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2496,7 +2521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>

--- a/工作进展/AI算法与应用-2024工作进展.xlsx
+++ b/工作进展/AI算法与应用-2024工作进展.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\steve_jiang\10_meeting\AI算法与应用小组\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA4378CF-98ED-4E79-956B-96B13378CDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92F7E78-5110-4F57-A3F6-7D6FC9FA90C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1965" windowWidth="28140" windowHeight="14235" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="178">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -953,6 +953,53 @@
     <t>1.使用mobilenetv2对数据1进行9:1的训练的验证。
 2.对框架课题整体框架进行绘制
 3.使用startnet发现模型收敛速度快，准确率进一步提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. ASD多站点分类任务
+（1）已实现GuidedBackPropogation方法找重要Biomarker
+2. 自我学习
+（1）双周6道题答案整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ASD多站点分类
+（1）重要脑区与Allen脑基因数据做关联分析论文调研+各流程实现
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240513-20240519</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. ASD多站点分类任务
+（1）重要脑区与Allen脑基因数据做关联分析论文调研
+（2）基于Allen脑基因数据计算ROI*基因表达矩阵
+（3）重要脑区的功能连接值域基因表达矩阵关联性分析，筛选重要基因
+（4）重要基因富集化分析
+2. 自我学习
+（1）双周6道题答案整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. ASD多站点分类
+（1）重要脑区计算并作图
+（2）与Allen脑基因数据做关联性分析并作图
+（3）与开源方法做比对
+2. 自我学习任务
+（1）完成双周6道题
+3. 其他任务
+（1）筹备paper with code前沿与经典AI论文分享
+（2）筹备AI算法与应用源码逐行解读</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -987,6 +1034,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1499,7 +1547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA12AC3-1402-48E1-953D-85ABF8F6B6A3}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -2043,10 +2091,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2140,6 +2188,34 @@
       </c>
       <c r="E5" s="1" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/工作进展/AI算法与应用-2024工作进展.xlsx
+++ b/工作进展/AI算法与应用-2024工作进展.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\fork\AI-Algorithm-and-Application-Group\工作进展\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA4378CF-98ED-4E79-956B-96B13378CDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCD5350-66CD-4D8D-B442-620962937AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1965" windowWidth="28140" windowHeight="14235" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="172">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -953,6 +953,10 @@
     <t>1.使用mobilenetv2对数据1进行9:1的训练的验证。
 2.对框架课题整体框架进行绘制
 3.使用startnet发现模型收敛速度快，准确率进一步提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240513-20240519</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1499,18 +1503,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA12AC3-1402-48E1-953D-85ABF8F6B6A3}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
-    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1524,7 +1528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="126" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1538,7 +1542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="182" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1552,7 +1556,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="112" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1566,7 +1570,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="140" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1580,7 +1584,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="154" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1594,7 +1598,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="154" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1608,7 +1612,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="140" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1622,7 +1626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="256.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="252" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1636,7 +1640,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1650,7 +1654,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1664,7 +1668,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="84" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1678,7 +1682,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="84" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -1690,7 +1694,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -1704,7 +1708,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -1718,7 +1722,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="126" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -1732,7 +1736,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>163</v>
       </c>
@@ -1743,7 +1747,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="98" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>168</v>
       </c>
@@ -1768,15 +1772,15 @@
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.75" customWidth="1"/>
-    <col min="2" max="2" width="38.875" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1790,7 +1794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -1805,7 +1809,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>108</v>
       </c>
@@ -1820,7 +1824,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="56" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>111</v>
       </c>
@@ -1835,7 +1839,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -1850,7 +1854,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -1865,7 +1869,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>62</v>
       </c>
@@ -1880,7 +1884,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="70" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>120</v>
       </c>
@@ -1895,7 +1899,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>123</v>
       </c>
@@ -1910,7 +1914,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>146</v>
       </c>
@@ -1925,7 +1929,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="56" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>150</v>
       </c>
@@ -1940,7 +1944,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1954,7 +1958,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -1965,7 +1969,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>127</v>
       </c>
@@ -1976,7 +1980,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="56" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>139</v>
       </c>
@@ -2001,13 +2005,13 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.875" customWidth="1"/>
-    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2024,7 +2028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2045,19 +2049,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
-    <col min="5" max="5" width="50.625" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="50.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2074,7 +2078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="94.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="94.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2091,7 +2095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="101.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="101.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2108,7 +2112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -2125,7 +2129,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -2150,21 +2154,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FCD182-86A4-4360-86CF-6FB9F6AAD733}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.58203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.08203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="23.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2178,7 +2182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>56</v>
       </c>
@@ -2192,7 +2196,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2206,7 +2210,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
@@ -2220,7 +2224,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>66</v>
       </c>
@@ -2234,7 +2238,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
@@ -2245,7 +2249,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="98" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>73</v>
       </c>
@@ -2259,7 +2263,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>139</v>
       </c>
@@ -2273,7 +2277,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="21.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>166</v>
       </c>
@@ -2284,6 +2288,20 @@
         <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2301,17 +2319,17 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="65.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="65.08203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="25.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="46" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>85</v>
       </c>
@@ -2325,7 +2343,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="84" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>89</v>
       </c>
@@ -2339,7 +2357,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>93</v>
       </c>
@@ -2353,7 +2371,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>97</v>
       </c>
@@ -2367,7 +2385,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="70" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>101</v>
       </c>
@@ -2381,22 +2399,22 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
     </row>
   </sheetData>
@@ -2414,14 +2432,14 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
+    <col min="5" max="5" width="33.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2438,7 +2456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2453,7 +2471,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -2483,7 +2501,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2498,13 +2516,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2521,7 +2539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>

--- a/工作进展/AI算法与应用-2024工作进展.xlsx
+++ b/工作进展/AI算法与应用-2024工作进展.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\fork\AI-Algorithm-and-Application-Group\工作进展\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\steve_jiang\10_meeting\AI算法与应用小组\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6A2D64-2E42-4300-AB0F-BC1D006CEFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA95DDB-3D56-464C-9B2A-2473BC81E5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4275" yWindow="315" windowWidth="26385" windowHeight="15735" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="180">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -957,6 +957,59 @@
   </si>
   <si>
     <t>20240513-20240519</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240513-20240519</t>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标追踪算法效果优化
+    - 基于卡尔曼滤波算法优化，传统算法预测xywh，新算法预测xya，基于概率论，基于xy与a（角度）无相关特性，分开预测
+    - 手术器械角度，与内景视野交点算法编码
+    - 单目标追踪算法流程优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. ASD多站点分类任务
+（1）已实现GuidedBackPropogation方法找重要Biomarker
+2. 自我学习
+（1）双周6道题答案整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ASD多站点分类
+（1）重要脑区与Allen脑基因数据做关联分析论文调研+各流程实现
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. ASD多站点分类任务
+（1）重要脑区与Allen脑基因数据做关联分析论文调研
+（2）基于Allen脑基因数据计算ROI*基因表达矩阵
+（3）重要脑区的功能连接值域基因表达矩阵关联性分析，筛选重要基因
+（4）重要基因富集化分析
+2. 自我学习
+（1）双周6道题答案整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. ASD多站点分类
+（1）重要脑区计算并作图
+（2）与Allen脑基因数据做关联性分析并作图
+（3）与开源方法做比对
+2. 自我学习任务
+（1）完成双周6道题
+3. 其他任务
+（1）筹备paper with code前沿与经典AI论文分享
+（2）筹备AI算法与应用源码逐行解读</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1503,18 +1556,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA12AC3-1402-48E1-953D-85ABF8F6B6A3}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
     <col min="4" max="4" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1528,7 +1581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="126" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1542,7 +1595,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="182" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1556,7 +1609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="112" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="114" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1570,7 +1623,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="140" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1584,7 +1637,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="154" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1598,7 +1651,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="154" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1612,7 +1665,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="140" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1626,7 +1679,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="252" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1640,7 +1693,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="98" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1654,7 +1707,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="98" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1668,7 +1721,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="84" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1682,7 +1735,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="84" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -1694,7 +1747,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="98" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -1708,7 +1761,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -1722,7 +1775,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="126" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -1736,7 +1789,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>163</v>
       </c>
@@ -1747,7 +1800,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="98" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>168</v>
       </c>
@@ -1772,15 +1825,15 @@
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.75" customWidth="1"/>
-    <col min="2" max="2" width="38.83203125" customWidth="1"/>
+    <col min="2" max="2" width="38.875" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1794,7 +1847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -1809,7 +1862,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>108</v>
       </c>
@@ -1824,7 +1877,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>111</v>
       </c>
@@ -1839,7 +1892,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -1854,7 +1907,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -1869,7 +1922,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>62</v>
       </c>
@@ -1884,7 +1937,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>120</v>
       </c>
@@ -1899,7 +1952,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>123</v>
       </c>
@@ -1914,7 +1967,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>146</v>
       </c>
@@ -1929,7 +1982,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>150</v>
       </c>
@@ -1944,7 +1997,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1958,7 +2011,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -1969,7 +2022,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>127</v>
       </c>
@@ -1980,7 +2033,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>139</v>
       </c>
@@ -2005,13 +2058,13 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" customWidth="1"/>
-    <col min="3" max="3" width="47.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.875" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2028,7 +2081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2047,21 +2100,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
-    <col min="5" max="5" width="50.58203125" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="5" max="5" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2078,7 +2131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="94.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="94.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2095,7 +2148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="101.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="101.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2112,7 +2165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -2129,7 +2182,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -2144,6 +2197,34 @@
       </c>
       <c r="E5" s="1" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2156,19 +2237,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FCD182-86A4-4360-86CF-6FB9F6AAD733}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.58203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.08203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="23.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2182,7 +2263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>56</v>
       </c>
@@ -2196,7 +2277,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2210,7 +2291,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
@@ -2224,7 +2305,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>66</v>
       </c>
@@ -2238,7 +2319,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
@@ -2249,7 +2330,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="98" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>73</v>
       </c>
@@ -2263,7 +2344,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>139</v>
       </c>
@@ -2277,7 +2358,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>166</v>
       </c>
@@ -2291,7 +2372,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>171</v>
       </c>
@@ -2319,17 +2400,17 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="65.08203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="65.125" style="4" customWidth="1"/>
     <col min="3" max="3" width="25.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="34.875" style="4" customWidth="1"/>
     <col min="5" max="5" width="46" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>85</v>
       </c>
@@ -2343,7 +2424,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="84" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>89</v>
       </c>
@@ -2357,7 +2438,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>93</v>
       </c>
@@ -2371,7 +2452,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>97</v>
       </c>
@@ -2385,7 +2466,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="70" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>101</v>
       </c>
@@ -2399,22 +2480,22 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
     </row>
   </sheetData>
@@ -2426,20 +2507,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F395B06B-D3DD-4C6E-8788-51F9EC4439D8}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="5" max="5" width="33.58203125" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2456,7 +2538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2471,7 +2553,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -2486,6 +2568,20 @@
       </c>
       <c r="E3" s="1" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="114" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2501,7 +2597,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2516,13 +2612,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2539,7 +2635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>

--- a/工作进展/AI算法与应用-2024工作进展.xlsx
+++ b/工作进展/AI算法与应用-2024工作进展.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\steve_jiang\10_meeting\AI算法与应用小组\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA95DDB-3D56-464C-9B2A-2473BC81E5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5C34E6-BC04-4881-850C-8DC5DED1EA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="315" windowWidth="26385" windowHeight="15735" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="1635" windowWidth="21615" windowHeight="11415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="185">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1011,6 +1011,22 @@
 （1）筹备paper with code前沿与经典AI论文分享
 （2）筹备AI算法与应用源码逐行解读</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240506-20240513</t>
+  </si>
+  <si>
+    <t>3.①核对ICA计算流程和数据②完成课程论文和复习备考</t>
+  </si>
+  <si>
+    <t>3.准备下周的几门考试</t>
+  </si>
+  <si>
+    <t>1.编写代码
+3.①完成论文和考试②计算AD数据集的皮层厚度</t>
+  </si>
+  <si>
+    <t>3.①准备下周的考试和课程论文</t>
   </si>
 </sst>
 </file>
@@ -1819,10 +1835,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A34F37F-F703-407A-90EF-DDF31E7D456F}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2042,6 +2058,28 @@
       </c>
       <c r="D15" s="1" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2102,7 +2140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>

--- a/工作进展/AI算法与应用-2024工作进展.xlsx
+++ b/工作进展/AI算法与应用-2024工作进展.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\新建文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5C34E6-BC04-4881-850C-8DC5DED1EA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709003CA-5529-43FB-B063-FAF684C879FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="1635" windowWidth="21615" windowHeight="11415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="1755" windowWidth="28140" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="188">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1027,6 +1027,21 @@
   </si>
   <si>
     <t>3.①准备下周的考试和课程论文</t>
+  </si>
+  <si>
+    <t>20240522-20240527</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.整理对数据I的结果
+2.对数据I使用starnet实验，并进行结果的整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.数据准确率过高，有质疑，进一步进行分析
+2.准备结课论文
+3.补两周六道题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1570,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA12AC3-1402-48E1-953D-85ABF8F6B6A3}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1827,6 +1842,17 @@
         <v>169</v>
       </c>
     </row>
+    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1837,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A34F37F-F703-407A-90EF-DDF31E7D456F}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2071,7 +2097,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>172</v>
       </c>

--- a/工作进展/AI算法与应用-2024工作进展.xlsx
+++ b/工作进展/AI算法与应用-2024工作进展.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86181\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709003CA-5529-43FB-B063-FAF684C879FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E360B2-988E-4819-BE37-37191359954B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="1755" windowWidth="28140" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="203">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1043,12 +1043,84 @@
 3.补两周六道题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1.课题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.暂无；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.课题
+2.深度学习学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.暂无；
+2. 暂无；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240520-20240526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1.	课题
+像素准确率的计算
+2.	自我学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.	准确率过低；
+2.	学习效率低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增大数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240520-20240527</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 基于多组学和深度学习探究帕金森生物标志物项目申请书撰写
+2. 自我学习
+（1）双周6道题答案整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. ASD多站点分类
+（1）重要脑区计算并作图
+（2）与Allen脑基因数据做关联性分析并作图
+（3）与开源方法做比对
+2. 自我学习任务
+（1）完成双周6道题
+3. 其他任务
+（1）paper with code前沿与经典AI论文分享
+（2）筹备AI算法与应用源码逐行解读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1078,6 +1150,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1101,7 +1181,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1125,6 +1205,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1587,18 +1689,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA12AC3-1402-48E1-953D-85ABF8F6B6A3}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
-    <col min="2" max="2" width="32.375" customWidth="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1612,7 +1714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1626,7 +1728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1640,7 +1742,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1654,7 +1756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="138" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1668,7 +1770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1682,7 +1784,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1696,7 +1798,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="138" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1710,7 +1812,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="256.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="248.4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1724,7 +1826,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1738,7 +1840,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1752,7 +1854,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1766,7 +1868,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -1778,7 +1880,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -1792,7 +1894,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -1806,7 +1908,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -1820,7 +1922,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>163</v>
       </c>
@@ -1831,7 +1933,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>168</v>
       </c>
@@ -1842,7 +1944,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>185</v>
       </c>
@@ -1864,18 +1966,18 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.75" customWidth="1"/>
-    <col min="2" max="2" width="38.875" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1889,7 +1991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -1904,7 +2006,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>108</v>
       </c>
@@ -1919,7 +2021,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>111</v>
       </c>
@@ -1934,7 +2036,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -1949,7 +2051,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -1964,7 +2066,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>62</v>
       </c>
@@ -1979,7 +2081,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>120</v>
       </c>
@@ -1994,7 +2096,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>123</v>
       </c>
@@ -2009,7 +2111,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>146</v>
       </c>
@@ -2024,7 +2126,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>150</v>
       </c>
@@ -2039,7 +2141,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -2053,7 +2155,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -2064,7 +2166,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>127</v>
       </c>
@@ -2075,7 +2177,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>139</v>
       </c>
@@ -2086,7 +2188,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>180</v>
       </c>
@@ -2097,7 +2199,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>172</v>
       </c>
@@ -2119,16 +2221,16 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.875" customWidth="1"/>
-    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2145,7 +2247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2164,21 +2266,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.25" customWidth="1"/>
+    <col min="1" max="2" width="19.21875" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
-    <col min="5" max="5" width="50.625" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2195,7 +2297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="94.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2212,7 +2314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="101.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="101.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2229,7 +2331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -2246,7 +2348,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -2263,7 +2365,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>166</v>
       </c>
@@ -2277,7 +2379,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>171</v>
       </c>
@@ -2289,6 +2391,23 @@
       </c>
       <c r="E7" s="1" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2305,15 +2424,15 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2327,7 +2446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>56</v>
       </c>
@@ -2341,7 +2460,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2355,7 +2474,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
@@ -2369,7 +2488,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>66</v>
       </c>
@@ -2383,7 +2502,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
@@ -2394,7 +2513,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>73</v>
       </c>
@@ -2408,7 +2527,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>139</v>
       </c>
@@ -2422,7 +2541,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>166</v>
       </c>
@@ -2436,7 +2555,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>171</v>
       </c>
@@ -2460,21 +2579,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFE9B93-3B3E-4B42-9AAA-B8F7C36D2A5C}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="65.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="25.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="65.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" style="4" customWidth="1"/>
     <col min="5" max="5" width="46" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>85</v>
       </c>
@@ -2488,7 +2607,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>89</v>
       </c>
@@ -2502,7 +2621,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>93</v>
       </c>
@@ -2516,7 +2635,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>97</v>
       </c>
@@ -2530,7 +2649,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>101</v>
       </c>
@@ -2544,22 +2663,22 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
     </row>
   </sheetData>
@@ -2574,18 +2693,18 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2602,7 +2721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2617,7 +2736,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -2634,7 +2753,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="114" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>172</v>
       </c>
@@ -2657,14 +2776,117 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E233D40-0E33-4AB4-9436-BF03DF9A999E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="55.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="15"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="13"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2672,17 +2894,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21ADC75A-D281-42EA-8F52-23F34E52017C}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2699,7 +2921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>

--- a/工作进展/AI算法与应用-2024工作进展.xlsx
+++ b/工作进展/AI算法与应用-2024工作进展.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86181\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hesicheng\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E360B2-988E-4819-BE37-37191359954B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ECE7CCA-D803-4F92-87AD-7BE326AC8819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="007杨晨辉" sheetId="7" r:id="rId7"/>
     <sheet name="008胡梦圆" sheetId="9" r:id="rId8"/>
     <sheet name="009杨同学" sheetId="8" r:id="rId9"/>
+    <sheet name="010何思成" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="213">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1113,6 +1114,53 @@
 3. 其他任务
 （1）paper with code前沿与经典AI论文分享
 （2）筹备AI算法与应用源码逐行解读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.自我学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.自我学习
+3.机器学习小组汇报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.暂无；
+2.暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240527-20240604</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.自我学习
+3.python学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目（GSVA数据分析）
+2.自我学习
+3.看文献</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.暂无
+2.暂无
+3.阅读缓慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看文献，做复现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1961,6 +2009,121 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE805F4-A2BA-4D54-A74B-06F85E17D99C}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="55.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A34F37F-F703-407A-90EF-DDF31E7D456F}">
   <dimension ref="A1:E17"/>
@@ -2268,8 +2431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2420,7 +2583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FCD182-86A4-4360-86CF-6FB9F6AAD733}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
@@ -2693,7 +2856,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2778,8 +2941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E233D40-0E33-4AB4-9436-BF03DF9A999E}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2894,7 +3057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21ADC75A-D281-42EA-8F52-23F34E52017C}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>

--- a/工作进展/AI算法与应用-2024工作进展.xlsx
+++ b/工作进展/AI算法与应用-2024工作进展.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hesicheng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\新建文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ECE7CCA-D803-4F92-87AD-7BE326AC8819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2765F78-8B28-4E59-8775-1F5E5BE90259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="1170" windowWidth="28140" windowHeight="14055" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="009杨同学" sheetId="8" r:id="rId9"/>
     <sheet name="010何思成" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="216">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1161,6 +1161,19 @@
   </si>
   <si>
     <t>看文献，做复现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240528-20240603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.基于数据集的划分问题，调研文献
+2.结课论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于GCNET网络（结合non-local network的全局正下文建模优势和SENet轻量优势）应用在模型中，应用原始数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1195,6 +1208,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1735,20 +1749,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA12AC3-1402-48E1-953D-85ABF8F6B6A3}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="4" max="4" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1762,7 +1776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1776,7 +1790,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1790,7 +1804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="114" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1804,7 +1818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="138" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1818,7 +1832,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1832,7 +1846,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="165.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1846,7 +1860,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="138" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1860,7 +1874,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="248.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1874,7 +1888,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1888,7 +1902,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1902,7 +1916,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1916,7 +1930,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -1928,7 +1942,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -1942,7 +1956,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -1956,7 +1970,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -1970,7 +1984,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>163</v>
       </c>
@@ -1981,7 +1995,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>168</v>
       </c>
@@ -1992,7 +2006,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>185</v>
       </c>
@@ -2001,6 +2015,17 @@
       </c>
       <c r="D19" s="1" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2013,19 +2038,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE805F4-A2BA-4D54-A74B-06F85E17D99C}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="55.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="55.875" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2042,7 +2067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
@@ -2057,7 +2082,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
@@ -2072,7 +2097,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>139</v>
       </c>
@@ -2087,7 +2112,7 @@
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -2101,7 +2126,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>207</v>
       </c>
@@ -2132,15 +2157,15 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="38.875" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2154,7 +2179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -2169,7 +2194,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>108</v>
       </c>
@@ -2184,7 +2209,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>111</v>
       </c>
@@ -2199,7 +2224,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -2214,7 +2239,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -2229,7 +2254,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>62</v>
       </c>
@@ -2244,7 +2269,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>120</v>
       </c>
@@ -2259,7 +2284,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>123</v>
       </c>
@@ -2274,7 +2299,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>146</v>
       </c>
@@ -2289,7 +2314,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>150</v>
       </c>
@@ -2304,7 +2329,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -2318,7 +2343,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -2329,7 +2354,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>127</v>
       </c>
@@ -2340,7 +2365,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>139</v>
       </c>
@@ -2351,7 +2376,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>180</v>
       </c>
@@ -2362,7 +2387,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>172</v>
       </c>
@@ -2387,13 +2412,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" customWidth="1"/>
-    <col min="3" max="3" width="47.88671875" customWidth="1"/>
+    <col min="1" max="1" width="26.875" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2410,7 +2435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2435,15 +2460,15 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="19.21875" customWidth="1"/>
+    <col min="1" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
-    <col min="5" max="5" width="50.6640625" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="5" max="5" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2460,7 +2485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="94.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2477,7 +2502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="101.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="101.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2494,7 +2519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -2511,7 +2536,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -2528,7 +2553,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>166</v>
       </c>
@@ -2542,7 +2567,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>171</v>
       </c>
@@ -2556,7 +2581,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>199</v>
       </c>
@@ -2587,15 +2612,15 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2609,7 +2634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>56</v>
       </c>
@@ -2623,7 +2648,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2637,7 +2662,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
@@ -2651,7 +2676,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>66</v>
       </c>
@@ -2665,7 +2690,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
@@ -2676,7 +2701,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>73</v>
       </c>
@@ -2690,7 +2715,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>139</v>
       </c>
@@ -2704,7 +2729,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>166</v>
       </c>
@@ -2718,7 +2743,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>171</v>
       </c>
@@ -2746,17 +2771,17 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="65.109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="65.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="34.875" style="4" customWidth="1"/>
     <col min="5" max="5" width="46" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>85</v>
       </c>
@@ -2770,7 +2795,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>89</v>
       </c>
@@ -2784,7 +2809,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>93</v>
       </c>
@@ -2798,7 +2823,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>97</v>
       </c>
@@ -2812,7 +2837,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>101</v>
       </c>
@@ -2826,22 +2851,22 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
     </row>
   </sheetData>
@@ -2859,15 +2884,15 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2884,7 +2909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2899,7 +2924,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -2916,7 +2941,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="114" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>172</v>
       </c>
@@ -2945,15 +2970,15 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="55.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="55.875" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2970,7 +2995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>127</v>
       </c>
@@ -2985,7 +3010,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>139</v>
       </c>
@@ -3000,7 +3025,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>166</v>
       </c>
@@ -3015,7 +3040,7 @@
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -3032,18 +3057,18 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" s="15"/>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D7" s="14"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E8" s="13"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E9" s="13"/>
     </row>
   </sheetData>
@@ -3061,13 +3086,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3084,7 +3109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>

--- a/工作进展/AI算法与应用-2024工作进展.xlsx
+++ b/工作进展/AI算法与应用-2024工作进展.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\steve_jiang\10_meeting\AI算法与应用小组\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2765F78-8B28-4E59-8775-1F5E5BE90259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740337E2-D8BE-4E31-A7BB-1521008C0AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1170" windowWidth="28140" windowHeight="14055" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5235" yWindow="2640" windowWidth="16680" windowHeight="15735" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="009杨同学" sheetId="8" r:id="rId9"/>
     <sheet name="010何思成" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029" calcOnSave="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="222">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1174,6 +1174,41 @@
   </si>
   <si>
     <t>基于GCNET网络（结合non-local network的全局正下文建模优势和SENet轻量优势）应用在模型中，应用原始数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240528-20240602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. ASD多站点分类
+（1）Grad-CAM激活图找到重要连接
+（2）重要连接和重要脑区计算并可视化
+2. 自我学习
+（1）医学AI论文分享ppt准备
+（2）双周6道题答案整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. ASD多站点分类
+（1）与Allen脑基因数据做关联性分析并作图
+（2）与开源方法做比对
+2. 自我学习任务
+（1）完成双周6道题
+3. 其他任务
+（1）筹备AI算法与应用源码逐行解读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240527-20240603</t>
+  </si>
+  <si>
+    <t>1.把皮尔逊系数，斯皮尔曼系数，肯德尔系数作为特征加入到原数据集，每个分类器
+依次做分类好特征筛选，再把分类器合并做集成学习</t>
+  </si>
+  <si>
+    <t>把三个系数全部合并再做筛选分类，
+调研心脏数据集的各个论文结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1307,183 +1342,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>165735</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5201285" cy="2984500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BDF8A2B-2FF1-437F-9927-D6C97943C5F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3423285"/>
-          <a:ext cx="5201285" cy="2984500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2914650" cy="771525"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD862DF7-C080-404E-B705-88151309BB99}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="66675" y="6467475"/>
-          <a:ext cx="2914650" cy="771525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3676650</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4953000" cy="3619500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{873C05B7-8C36-44AC-89C0-ECE7E9B72F9D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5229225" y="3419475"/>
-          <a:ext cx="4953000" cy="3619500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1800225</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6962775" cy="3629025"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69AF0E61-8D9E-4100-929E-79E39A1329C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10239375" y="3429000"/>
-          <a:ext cx="6962775" cy="3629025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1751,7 +1609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA12AC3-1402-48E1-953D-85ABF8F6B6A3}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -2454,10 +2312,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2596,6 +2454,23 @@
       </c>
       <c r="E8" s="17" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2767,8 +2642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFE9B93-3B3E-4B42-9AAA-B8F7C36D2A5C}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2851,10 +2726,16 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+    <row r="6" spans="1:4" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
@@ -2872,7 +2753,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/工作进展/AI算法与应用-2024工作进展.xlsx
+++ b/工作进展/AI算法与应用-2024工作进展.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\steve_jiang\10_meeting\AI算法与应用小组\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\新建文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740337E2-D8BE-4E31-A7BB-1521008C0AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC9B9225-B57A-4328-9568-7C8DDF336A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="2640" windowWidth="16680" windowHeight="15735" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="225">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1209,6 +1209,19 @@
   <si>
     <t>把三个系数全部合并再做筛选分类，
 调研心脏数据集的各个论文结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240604-20240611</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.基于GCNET搭建的模型结果在数据集上准确率平均结果70%左右
+2.阅读论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于时频变换进行分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1607,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA12AC3-1402-48E1-953D-85ABF8F6B6A3}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1884,6 +1897,17 @@
       </c>
       <c r="D20" s="1" t="s">
         <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2642,7 +2666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFE9B93-3B3E-4B42-9AAA-B8F7C36D2A5C}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/工作进展/AI算法与应用-2024工作进展.xlsx
+++ b/工作进展/AI算法与应用-2024工作进展.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86181\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC9B9225-B57A-4328-9568-7C8DDF336A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33620A9A-17C1-41D3-B193-95CD3246414C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="232">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1222,6 +1222,32 @@
   </si>
   <si>
     <t>基于时频变换进行分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240603-20240609</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>20240527-2024-0602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.组会汇报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改PPT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1622,18 +1648,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA12AC3-1402-48E1-953D-85ABF8F6B6A3}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
-    <col min="2" max="2" width="32.375" customWidth="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1647,7 +1673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1661,7 +1687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1675,7 +1701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1689,7 +1715,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="138" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1703,7 +1729,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1717,7 +1743,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1731,7 +1757,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="138" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1745,7 +1771,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="256.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="248.4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1759,7 +1785,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1773,7 +1799,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1787,7 +1813,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1801,7 +1827,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -1813,7 +1839,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -1827,7 +1853,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -1841,7 +1867,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -1855,7 +1881,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>163</v>
       </c>
@@ -1866,7 +1892,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>168</v>
       </c>
@@ -1877,7 +1903,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>185</v>
       </c>
@@ -1888,7 +1914,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="69" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>213</v>
       </c>
@@ -1899,7 +1925,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>222</v>
       </c>
@@ -1924,15 +1950,15 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="55.875" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="55.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1949,7 +1975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
@@ -1964,7 +1990,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
@@ -1979,7 +2005,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>139</v>
       </c>
@@ -1994,7 +2020,7 @@
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -2008,7 +2034,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>207</v>
       </c>
@@ -2039,15 +2065,15 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.75" customWidth="1"/>
-    <col min="2" max="2" width="38.875" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2061,7 +2087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -2076,7 +2102,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>108</v>
       </c>
@@ -2091,7 +2117,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>111</v>
       </c>
@@ -2106,7 +2132,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -2121,7 +2147,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -2136,7 +2162,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>62</v>
       </c>
@@ -2151,7 +2177,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>120</v>
       </c>
@@ -2166,7 +2192,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>123</v>
       </c>
@@ -2181,7 +2207,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>146</v>
       </c>
@@ -2196,7 +2222,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>150</v>
       </c>
@@ -2211,7 +2237,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -2225,7 +2251,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -2236,7 +2262,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>127</v>
       </c>
@@ -2247,7 +2273,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>139</v>
       </c>
@@ -2258,7 +2284,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>180</v>
       </c>
@@ -2269,7 +2295,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>172</v>
       </c>
@@ -2294,13 +2320,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.875" customWidth="1"/>
-    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2317,7 +2343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2342,15 +2368,15 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.25" customWidth="1"/>
+    <col min="1" max="2" width="19.21875" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
-    <col min="5" max="5" width="50.625" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2367,7 +2393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="94.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2384,7 +2410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="101.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="101.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2401,7 +2427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -2418,7 +2444,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -2435,7 +2461,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>166</v>
       </c>
@@ -2449,7 +2475,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>171</v>
       </c>
@@ -2463,7 +2489,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>199</v>
       </c>
@@ -2480,7 +2506,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>216</v>
       </c>
@@ -2511,15 +2537,15 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2533,7 +2559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>56</v>
       </c>
@@ -2547,7 +2573,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2561,7 +2587,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
@@ -2575,7 +2601,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>66</v>
       </c>
@@ -2589,7 +2615,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
@@ -2600,7 +2626,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>73</v>
       </c>
@@ -2614,7 +2640,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>139</v>
       </c>
@@ -2628,7 +2654,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>166</v>
       </c>
@@ -2642,7 +2668,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>171</v>
       </c>
@@ -2670,17 +2696,17 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="65.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="25.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="65.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" style="4" customWidth="1"/>
     <col min="5" max="5" width="46" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>85</v>
       </c>
@@ -2694,7 +2720,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>89</v>
       </c>
@@ -2708,7 +2734,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>93</v>
       </c>
@@ -2722,7 +2748,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>97</v>
       </c>
@@ -2736,7 +2762,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>101</v>
       </c>
@@ -2750,7 +2776,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>219</v>
       </c>
@@ -2761,17 +2787,17 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
     </row>
   </sheetData>
@@ -2788,15 +2814,15 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2813,7 +2839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2828,7 +2854,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -2845,7 +2871,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="114" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>172</v>
       </c>
@@ -2870,19 +2896,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E233D40-0E33-4AB4-9436-BF03DF9A999E}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="55.875" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="55.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2899,7 +2925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>127</v>
       </c>
@@ -2914,7 +2940,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>139</v>
       </c>
@@ -2929,7 +2955,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>166</v>
       </c>
@@ -2944,7 +2970,7 @@
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -2961,18 +2987,40 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="D6" s="15"/>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" s="13"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" s="13"/>
     </row>
   </sheetData>
@@ -2990,13 +3038,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3013,7 +3061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>

--- a/工作进展/AI算法与应用-2024工作进展.xlsx
+++ b/工作进展/AI算法与应用-2024工作进展.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86181\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\新建文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33620A9A-17C1-41D3-B193-95CD3246414C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39229595-307E-47C2-9496-BA08652B18CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="239">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1248,6 +1248,35 @@
   </si>
   <si>
     <t>修改PPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240610-20240617</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集样本太多，10多万个。跑得太慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建论文框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.找了新的数据，再把皮尔逊系数和集成分类器做一次
+2.考试复习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240612-20240617</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新搭建框架，使用视频的思想进行3D分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改模型架构，提高性能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1646,20 +1675,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA12AC3-1402-48E1-953D-85ABF8F6B6A3}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="4" max="4" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1673,7 +1702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1687,7 +1716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1701,7 +1730,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="114" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1715,7 +1744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="138" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1729,7 +1758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1743,7 +1772,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="165.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1757,7 +1786,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="138" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1771,7 +1800,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="248.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1785,7 +1814,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1799,7 +1828,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1813,7 +1842,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1827,7 +1856,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -1839,7 +1868,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -1853,7 +1882,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -1867,7 +1896,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -1881,7 +1910,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>163</v>
       </c>
@@ -1892,7 +1921,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>168</v>
       </c>
@@ -1903,7 +1932,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>185</v>
       </c>
@@ -1914,7 +1943,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>213</v>
       </c>
@@ -1925,7 +1954,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>222</v>
       </c>
@@ -1934,6 +1963,17 @@
       </c>
       <c r="D21" s="1" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -1950,15 +1990,15 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="55.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="55.875" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1975,7 +2015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
@@ -1990,7 +2030,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
@@ -2005,7 +2045,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>139</v>
       </c>
@@ -2020,7 +2060,7 @@
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -2034,7 +2074,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>207</v>
       </c>
@@ -2065,15 +2105,15 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="38.875" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2087,7 +2127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -2102,7 +2142,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>108</v>
       </c>
@@ -2117,7 +2157,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>111</v>
       </c>
@@ -2132,7 +2172,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -2147,7 +2187,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -2162,7 +2202,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>62</v>
       </c>
@@ -2177,7 +2217,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>120</v>
       </c>
@@ -2192,7 +2232,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>123</v>
       </c>
@@ -2207,7 +2247,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>146</v>
       </c>
@@ -2222,7 +2262,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>150</v>
       </c>
@@ -2237,7 +2277,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -2251,7 +2291,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -2262,7 +2302,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>127</v>
       </c>
@@ -2273,7 +2313,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>139</v>
       </c>
@@ -2284,7 +2324,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>180</v>
       </c>
@@ -2295,7 +2335,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>172</v>
       </c>
@@ -2320,13 +2360,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" customWidth="1"/>
-    <col min="3" max="3" width="47.88671875" customWidth="1"/>
+    <col min="1" max="1" width="26.875" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2343,7 +2383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2364,19 +2404,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="19.21875" customWidth="1"/>
+    <col min="1" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
-    <col min="5" max="5" width="50.6640625" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="5" max="5" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2393,7 +2433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="94.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2410,7 +2450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="101.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="101.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2427,7 +2467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -2444,7 +2484,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -2461,7 +2501,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>166</v>
       </c>
@@ -2475,7 +2515,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>171</v>
       </c>
@@ -2489,7 +2529,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>199</v>
       </c>
@@ -2506,7 +2546,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>216</v>
       </c>
@@ -2537,15 +2577,15 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2559,7 +2599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>56</v>
       </c>
@@ -2573,7 +2613,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2587,7 +2627,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
@@ -2601,7 +2641,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>66</v>
       </c>
@@ -2615,7 +2655,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
@@ -2626,7 +2666,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>73</v>
       </c>
@@ -2640,7 +2680,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>139</v>
       </c>
@@ -2654,7 +2694,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>166</v>
       </c>
@@ -2668,7 +2708,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>171</v>
       </c>
@@ -2692,21 +2732,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFE9B93-3B3E-4B42-9AAA-B8F7C36D2A5C}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="65.109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="65.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="34.875" style="4" customWidth="1"/>
     <col min="5" max="5" width="46" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>85</v>
       </c>
@@ -2720,7 +2760,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>89</v>
       </c>
@@ -2734,7 +2774,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>93</v>
       </c>
@@ -2748,7 +2788,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>97</v>
       </c>
@@ -2762,7 +2802,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>101</v>
       </c>
@@ -2776,7 +2816,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>219</v>
       </c>
@@ -2787,17 +2827,26 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
     </row>
   </sheetData>
@@ -2814,15 +2863,15 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2839,7 +2888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2854,7 +2903,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -2871,7 +2920,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="114" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>172</v>
       </c>
@@ -2896,19 +2945,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E233D40-0E33-4AB4-9436-BF03DF9A999E}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="55.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="55.875" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2925,7 +2974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>127</v>
       </c>
@@ -2940,7 +2989,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>139</v>
       </c>
@@ -2955,7 +3004,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>166</v>
       </c>
@@ -2970,7 +3019,7 @@
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -2987,7 +3036,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>228</v>
       </c>
@@ -3000,7 +3049,7 @@
       <c r="D6" s="15"/>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>225</v>
       </c>
@@ -3017,10 +3066,10 @@
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E8" s="13"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E9" s="13"/>
     </row>
   </sheetData>
@@ -3038,13 +3087,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3061,7 +3110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>

--- a/工作进展/AI算法与应用-2024工作进展.xlsx
+++ b/工作进展/AI算法与应用-2024工作进展.xlsx
@@ -1,28 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\steve_jiang\10_meeting\AI算法与应用小组\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39229595-307E-47C2-9496-BA08652B18CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3849528E-8E80-4AC0-AF21-4065EE1D601F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
     <sheet name="002王春妍" sheetId="3" r:id="rId2"/>
-    <sheet name="003张保江" sheetId="4" r:id="rId3"/>
-    <sheet name="004江润洲" sheetId="1" r:id="rId4"/>
-    <sheet name="005董凡" sheetId="5" r:id="rId5"/>
-    <sheet name="006周远航" sheetId="6" r:id="rId6"/>
-    <sheet name="007杨晨辉" sheetId="7" r:id="rId7"/>
-    <sheet name="008胡梦圆" sheetId="9" r:id="rId8"/>
-    <sheet name="009杨同学" sheetId="8" r:id="rId9"/>
-    <sheet name="010何思成" sheetId="10" r:id="rId10"/>
+    <sheet name="004江润洲" sheetId="1" r:id="rId3"/>
+    <sheet name="006周远航" sheetId="6" r:id="rId4"/>
+    <sheet name="008胡梦圆" sheetId="9" r:id="rId5"/>
+    <sheet name="010何思成" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="215">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -414,99 +410,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20240220-20240225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、无
-2、pytorch环境安装、了解一些深度学习基本知识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李宏毅视频、跑一些基本的模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、lenet5模型了解和训练flower102数据集
-2、李宏毅视频第一课Introduction of Deep Learning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alexnet、googlenet、vggnet、restnet模型了解和训练</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20240304-20240310</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、alexnet、googlenet、vggnet、restnet模型了解和代码搜集
-2、李宏毅第二课What to do if my network fails to train</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>准确率未达到github上的作者提供的结果（数据集不一致的影响？原因待查）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>训练alexnet、googlenet、vggnet、restnet，得出准确率和推理速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20240310-20240317</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、alexnet、googlenet、vggnet、restnet训练过程中的问题查找
-2、李宏毅第三课Image as input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alexnet训练过程中loss不变问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找出训练过程中的一些问题、整理代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20240318-20240324</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、alexnet训练参数调整，测试训练效果，目前测试ACC为45%
-了解InstantID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理解lenet5、alexnet、googlenet、vggnet、resnet模型，调整参数提高训练acc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20240325-20240331</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、使用flower 5分类重新训练lenet5(0.70)、alexnet(0.96）、googlenet(0.93)、vggnet(0.97)、resnet(0.89) 5个网络，acc相较之间102flower数据集有比较大提升
-2、重新看了一下李宏毅第二讲中关于训练中的一些问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理解lenet5、alexnet、googlenet、vggnet、resnet模型,测试InstanstID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 部署
--双三次线性插值算法实现（主要问题在ndimage.zoom的C++/CUDA实现）
--算法前后处理并行
-2. ROS学习
-- 完成ubuntu22系统ros2环境搭建
-- 了解ros2，工作空间，通信，节点，服务等基础概念
-- 了解三维可视化工具，模拟雷达、相机等信号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -549,10 +453,6 @@
 设计Inception模块进行分类任务，查看结果
 2.其他任务
 复习考试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上周没搞代码，在标数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -628,11 +528,6 @@
   </si>
   <si>
     <t>看看结果是否理想，不然的话考虑是否将人工网络加入进来优化模型</t>
-  </si>
-  <si>
-    <t>1. python的视频学习
-2. 学校C语言课程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.暂无进展
@@ -813,25 +708,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、查阅一些yolov8资料，了解一些精度、速度和应用场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yolov8使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1.图像配准任务
-（1）icp、NDT配准算法学习
-（2）配准相关算法推导，如PCA,KD-Tree，OCTree等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编码测试1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20230325-20240331</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -936,10 +812,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暂无进展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20240514-20240521</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -965,13 +837,6 @@
   </si>
   <si>
     <t>14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标追踪算法效果优化
-    - 基于卡尔曼滤波算法优化，传统算法预测xywh，新算法预测xya，基于概率论，基于xy与a（角度）无相关特性，分开预测
-    - 手术器械角度，与内景视野交点算法编码
-    - 单目标追踪算法流程优化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1277,6 +1142,34 @@
   </si>
   <si>
     <t>更改模型架构，提高性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240610-20240623</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 其他任务
+（1）医学AI读书会筹备与医学AI论文汇报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 论文项目一ASD多站点分类
+（1）与Allen脑基因数据做关联性分析并作图
+（2）与开源方法做比对
+2. 论文项目二PD肠道菌群移植+长时间采集
+（1）长时间采集项目申请书
+（2）PD肠道菌群移植前后大脑影像改变项目申请书
+3. 自我学习任务
+（1）深度学习分类模型BP、LeNet5模型论文源码梳理与解读
+（2）医学AI相关文献阅读与总结
+4. 其他任务
+（1）AI学习资料梳理；
+（2）AI学习路径梳理；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1677,7 +1570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA12AC3-1402-48E1-953D-85ABF8F6B6A3}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -1858,237 +1751,122 @@
     </row>
     <row r="13" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE805F4-A2BA-4D54-A74B-06F85E17D99C}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="55.875" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E6" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2132,43 +1910,43 @@
         <v>14</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="E4" s="6"/>
     </row>
@@ -2177,13 +1955,13 @@
         <v>28</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E5" s="6"/>
     </row>
@@ -2192,88 +1970,88 @@
         <v>32</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="E11" s="6"/>
     </row>
@@ -2282,13 +2060,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -2296,54 +2074,54 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="D17" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2353,17 +2131,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D236A55-B6FC-4374-89D8-9F770EEF7D39}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.875" customWidth="1"/>
-    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="1" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="53" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="5" max="5" width="52.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -2383,15 +2163,151 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="94.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="101.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>84</v>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="177" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2401,334 +2317,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
-    <col min="5" max="5" width="50.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="94.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="101.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FCD182-86A4-4360-86CF-6FB9F6AAD733}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.25" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFE9B93-3B3E-4B42-9AAA-B8F7C36D2A5C}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -2748,97 +2336,97 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2855,93 +2443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F395B06B-D3DD-4C6E-8788-51F9EC4439D8}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="114" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E233D40-0E33-4AB4-9436-BF03DF9A999E}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -2976,43 +2478,43 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>5</v>
@@ -3021,49 +2523,49 @@
     </row>
     <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3079,18 +2581,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21ADC75A-D281-42EA-8F52-23F34E52017C}">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE805F4-A2BA-4D54-A74B-06F85E17D99C}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="55.875" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -3110,20 +2614,81 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1"/>
+      <c r="B3" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" t="s">
+        <v>184</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/工作进展/AI算法与应用-2024工作进展.xlsx
+++ b/工作进展/AI算法与应用-2024工作进展.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\steve_jiang\10_meeting\AI算法与应用小组\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\新建文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3849528E-8E80-4AC0-AF21-4065EE1D601F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0CD0E18-A829-490A-9260-1E5F938901C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="219">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1170,6 +1170,25 @@
 4. 其他任务
 （1）AI学习资料梳理；
 （2）AI学习路径梳理；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240618-20240624</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">整个代码框架搭建
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.检查时频转换代码，时频能量图呈现方式
+2.调整模型架构，先提升一部分性能
+3.更改代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1568,10 +1587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA12AC3-1402-48E1-953D-85ABF8F6B6A3}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1867,6 +1886,20 @@
       </c>
       <c r="D22" s="1" t="s">
         <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C23" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2134,7 +2167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E7" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
